--- a/Reference Documents/WORD COUNT WITH FORMAT.xlsx
+++ b/Reference Documents/WORD COUNT WITH FORMAT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1401562\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\StuHome\HomeDrive2$\1401562\GitHub\Honours-Project-Dissertation\Reference Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,9 +428,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -438,11 +435,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="125">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -725,221 +725,41 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2197,13 +2017,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" t="s">
         <v>21</v>
       </c>
@@ -2431,98 +2251,98 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="142" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="23" operator="between">
       <formula>$B$3</formula>
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="24" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="25" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="26" operator="greaterThan">
       <formula>"526$D$3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="cellIs" dxfId="138" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="16" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="21" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="22" operator="greaterThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="133" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="between">
       <formula>$B$6</formula>
       <formula>$D$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="between">
       <formula>$B$6</formula>
       <formula>$D$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="lessThan">
       <formula>$B$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="20" operator="greaterThan">
       <formula>$D$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="129" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="14" operator="greaterThan">
       <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="15" operator="lessThan">
       <formula>$B$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C11">
-    <cfRule type="cellIs" dxfId="127" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="greaterThan">
       <formula>$D$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="lessThan">
       <formula>$B$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="greaterThan">
       <formula>$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="124" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="10" operator="lessThan">
       <formula>$B$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="7" operator="greaterThan">
       <formula>$D$11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="8" operator="lessThan">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="containsText" dxfId="120" priority="2" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="102" priority="2" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F15">
-    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2546,13 +2366,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" t="s">
         <v>21</v>
       </c>
@@ -2729,99 +2549,99 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="117" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="between">
       <formula>$B$3</formula>
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="24" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="26" operator="greaterThan">
       <formula>"526$D$3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="113" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="16" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="17" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="18" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="21" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="22" operator="greaterThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="108" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="between">
       <formula>$B$5</formula>
       <formula>$D$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="19" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="20" operator="greaterThan">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="105" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="14" operator="greaterThan">
       <formula>$D$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="15" operator="lessThan">
       <formula>$B$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C9">
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="greaterThan">
       <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="lessThan">
       <formula>$B$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="greaterThan">
       <formula>$B$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="100" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="greaterThan">
       <formula>$D$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="lessThan">
       <formula>$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="greaterThan">
       <formula>$D$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="lessThan">
       <formula>$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="96" priority="3" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="4" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11">
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F7">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2844,13 +2664,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" t="s">
         <v>21</v>
       </c>
@@ -3066,97 +2886,97 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="92" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="87" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="8" operator="between">
       <formula>$B$4</formula>
       <formula>$D$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="21" operator="lessThan">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="22" operator="greaterThan">
       <formula>$D$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="84" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="16" operator="greaterThan">
       <formula>$D$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="17" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThan">
       <formula>$D$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="lessThan">
       <formula>$B$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="greaterThan">
       <formula>$D$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="10" operator="lessThan">
       <formula>$B$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G9">
-    <cfRule type="containsText" dxfId="78" priority="6" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="7" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G9">
-    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G8">
-    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="57" priority="4" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="74" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="30" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="lessThan">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="greaterThan">
       <formula>$I$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3170,7 +2990,7 @@
   <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,13 +3005,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>43</v>
       </c>
@@ -3273,7 +3093,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <f>B5+(B5*0.1)</f>
         <v>550</v>
       </c>
@@ -3344,7 +3164,7 @@
       <c r="B7" s="1">
         <v>800</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <f t="shared" ref="D7:D11" si="0">B7+(B7*0.1)</f>
         <v>880</v>
       </c>
@@ -3377,7 +3197,7 @@
       <c r="B8" s="1">
         <v>200</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <f>B8+(B8*0.1)</f>
         <v>220</v>
       </c>
@@ -3409,7 +3229,7 @@
       </c>
       <c r="B9" s="6">
         <f>SUM(B10:B11)</f>
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C9" s="7">
         <f>SUM(C10:C11)</f>
@@ -3417,7 +3237,7 @@
       </c>
       <c r="D9" s="8">
         <f>B9+(B9*0.1)</f>
-        <v>2200</v>
+        <v>2750</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -3446,12 +3266,12 @@
         <v>37</v>
       </c>
       <c r="B10" s="10">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -3480,12 +3300,12 @@
         <v>38</v>
       </c>
       <c r="B11" s="13">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>1375</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -3703,7 +3523,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <f t="shared" ref="D17" si="2">B17+(B17*0.1)</f>
         <v>1100</v>
       </c>
@@ -3739,7 +3559,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
@@ -3804,16 +3624,16 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>500</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <f>B20+(B20*0.1)</f>
         <v>550</v>
       </c>
@@ -3840,16 +3660,16 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>500</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <f>B21+(B21*0.1)</f>
         <v>550</v>
       </c>
@@ -3885,7 +3705,7 @@
       </c>
       <c r="B23" s="1">
         <f>SUM(B4,B6,B9,B12,B16,B19)</f>
-        <v>8750</v>
+        <v>9250</v>
       </c>
       <c r="C23" s="1">
         <f>SUM(C5:C9,C12,C18:C21)</f>
@@ -3893,7 +3713,7 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D4,D6,D9,D12,D16,D19,)</f>
-        <v>9625</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3910,97 +3730,97 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="68" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="between">
       <formula>$B$3</formula>
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="lessThan">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="greaterThan">
       <formula>$D$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="65" operator="greaterThan">
       <formula>"526$D$3"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="cellIs" dxfId="64" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="56" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="57" operator="lessThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="lessThan">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="greaterThan">
       <formula>$D$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C15 C20:C21 C17:C18">
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="greaterThan">
       <formula>$D$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
       <formula>$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3 G5:L22 F5:F23 F4:L4">
-    <cfRule type="containsText" dxfId="56" priority="43" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="38" priority="43" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="44" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="37" priority="44" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:L22 F21:F23 F4:L20">
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="r">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="r">
       <formula>NOT(ISERROR(SEARCH("r",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L9">
-    <cfRule type="containsText" dxfId="53" priority="41" operator="containsText" text="w">
+    <cfRule type="containsText" dxfId="35" priority="41" operator="containsText" text="w">
       <formula>NOT(ISERROR(SEARCH("w",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>$B$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="greaterThan">
       <formula>$D$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="greaterThan">
       <formula>$D$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="greaterThan">
       <formula>$D$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 C4 C9:C15 C20:C22 C17:C18">
-    <cfRule type="cellIs" dxfId="31" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="77" operator="greaterThan">
       <formula>$D$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="78" operator="lessThan">
       <formula>$B$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="79" operator="greaterThan">
       <formula>$B$8</formula>
     </cfRule>
   </conditionalFormatting>
